--- a/src/analysis.xlsx
+++ b/src/analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rim\Desktop\SPLC22_paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rim\Documents\GitHub\SecurityConfigurableStorage_SPLC22\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,11 @@
     <sheet name="analysis" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
   <si>
     <t>title</t>
   </si>
@@ -410,6 +409,12 @@
   </si>
   <si>
     <t>Dimitri Van Landuyt, Stefan Walraven,  Wouter Joosen</t>
+  </si>
+  <si>
+    <t>("software as a service" OR "SaaS" OR "infrastructure as a service" OR "IaaS" OR "service-based" OR "service-oriented" OR "on-demand" OR "stor*" OR "cloud" OR "database" OR "warehouse" OR "blockchain" OR "edge" OR "fog") AND ("software product line" OR "SPL" OR "product famil*" OR "system famil*" OR “software famil*” OR "variant*rich" OR "config* system") AND ("security" OR "secure")</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
 </sst>
 </file>
@@ -1219,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X54"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -2058,6 +2063,16 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/analysis.xlsx
+++ b/src/analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="200">
   <si>
     <t>title</t>
   </si>
@@ -243,15 +243,6 @@
     <t>Accountability</t>
   </si>
   <si>
-    <t>non-repudiation</t>
-  </si>
-  <si>
-    <t>specification</t>
-  </si>
-  <si>
-    <t>security threats</t>
-  </si>
-  <si>
     <t>Storage type</t>
   </si>
   <si>
@@ -267,9 +258,6 @@
     <t>SPL &gt; storage</t>
   </si>
   <si>
-    <t>storage &gt; SPL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baresi </t>
   </si>
   <si>
@@ -372,9 +360,6 @@
     <t>Controlled and Extensible Variability of Concrete and Abstract Syntax with Independent Language Features</t>
   </si>
   <si>
-    <t xml:space="preserve"> Heterogeneous Variability Modeling Approaches Supporting Distributed Product Con_x000C_guration by Integrating</t>
-  </si>
-  <si>
     <t>Gey</t>
   </si>
   <si>
@@ -415,6 +400,245 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>Organization structure</t>
+  </si>
+  <si>
+    <t>Stored data type</t>
+  </si>
+  <si>
+    <t>Supporting Distributed Product Con_x000C_guration by Integrating Heterogeneous Variability Modeling Approaches</t>
+  </si>
+  <si>
+    <t>Non-repudiation</t>
+  </si>
+  <si>
+    <t>Specification</t>
+  </si>
+  <si>
+    <t>Security threats</t>
+  </si>
+  <si>
+    <t>Security technology</t>
+  </si>
+  <si>
+    <t>Storage &gt; SPL</t>
+  </si>
+  <si>
+    <t>no SPL</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>given but not specified</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>given and specified</t>
+  </si>
+  <si>
+    <t>not given</t>
+  </si>
+  <si>
+    <t>centralized</t>
+  </si>
+  <si>
+    <t>security goal</t>
+  </si>
+  <si>
+    <t>software, storage</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>Configuration generator, Verifier.</t>
+  </si>
+  <si>
+    <t>feature-based</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>evolution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dynamic evolution of service compositions to deal with unexpected events in the open world</t>
+    </r>
+  </si>
+  <si>
+    <t>context (state) data</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>non-functional requirement</t>
+  </si>
+  <si>
+    <t>reliability issue</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>DOPLER</t>
+  </si>
+  <si>
+    <t>ERP/retail data</t>
+  </si>
+  <si>
+    <t>system, external users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data access </t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>ERP System on cloud to increase sales</t>
+  </si>
+  <si>
+    <t>cloud, SaaS</t>
+  </si>
+  <si>
+    <t>non-functional requirement, quality attribut</t>
+  </si>
+  <si>
+    <t>encryption, isolation</t>
+  </si>
+  <si>
+    <t>unspecified data</t>
+  </si>
+  <si>
+    <t>authenticitation, data privacy, information hiding, uniformity</t>
+  </si>
+  <si>
+    <t>unspecificed SPL</t>
+  </si>
+  <si>
+    <t>private usage</t>
+  </si>
+  <si>
+    <t>untrusted microservice provider</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>problem-space</t>
+  </si>
+  <si>
+    <t>(FeatureIDE as example)</t>
+  </si>
+  <si>
+    <t>webshop data</t>
+  </si>
+  <si>
+    <t>centralized, decentralized</t>
+  </si>
+  <si>
+    <t>system, user</t>
+  </si>
+  <si>
+    <t>retail/e-commerce</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>solution-space</t>
+  </si>
+  <si>
+    <t>ACFAM methodology</t>
+  </si>
+  <si>
+    <t>evolution with 4 releases</t>
+  </si>
+  <si>
+    <t>e-commerce data</t>
+  </si>
+  <si>
+    <t>Cyber-physical systems</t>
+  </si>
+  <si>
+    <t>variants, feature model, checker software</t>
+  </si>
+  <si>
+    <t>problem-space, mapping, solution-space</t>
+  </si>
+  <si>
+    <t>dynamic evolution process, evolution at runtime</t>
+  </si>
+  <si>
+    <t>encryption, signature</t>
+  </si>
+  <si>
+    <t>high level of security</t>
+  </si>
+  <si>
+    <t>Tourism</t>
+  </si>
+  <si>
+    <t>Spring Security, access control</t>
+  </si>
+  <si>
+    <t>Geographic Information system</t>
+  </si>
+  <si>
+    <t>geographic data</t>
+  </si>
+  <si>
+    <t>encryption</t>
+  </si>
+  <si>
+    <t>quality attribut</t>
+  </si>
+  <si>
+    <t>feature model</t>
+  </si>
+  <si>
+    <t>variant manipulation, bugs</t>
+  </si>
+  <si>
+    <t>sequential code</t>
+  </si>
+  <si>
+    <t>shared access instance, privacy</t>
+  </si>
+  <si>
+    <t>non-functional requirements</t>
+  </si>
+  <si>
+    <t>access control</t>
+  </si>
+  <si>
+    <t>access, privacy, secure hardware</t>
+  </si>
+  <si>
+    <t>mobile web platform as configuration service</t>
   </si>
 </sst>
 </file>
@@ -557,7 +781,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,6 +959,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -898,11 +1140,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1224,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:AC62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -1238,12 +1486,12 @@
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1255,97 +1503,187 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>2017</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AC2" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D3">
         <v>2017</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R3" t="s">
+        <v>136</v>
+      </c>
+      <c r="S3" t="s">
+        <v>136</v>
+      </c>
+      <c r="T3" t="s">
+        <v>136</v>
+      </c>
+      <c r="U3" t="s">
+        <v>142</v>
+      </c>
+      <c r="V3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W3" t="s">
+        <v>136</v>
+      </c>
+      <c r="X3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
@@ -1356,10 +1694,85 @@
       <c r="D4">
         <v>2016</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O4" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4" t="s">
+        <v>136</v>
+      </c>
+      <c r="S4" t="s">
+        <v>136</v>
+      </c>
+      <c r="T4" t="s">
+        <v>136</v>
+      </c>
+      <c r="U4" t="s">
+        <v>151</v>
+      </c>
+      <c r="V4" t="s">
+        <v>136</v>
+      </c>
+      <c r="W4" t="s">
+        <v>136</v>
+      </c>
+      <c r="X4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>40</v>
@@ -1370,24 +1783,102 @@
       <c r="D5">
         <v>2019</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6">
+      <c r="E5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="N5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s">
+        <v>138</v>
+      </c>
+      <c r="T5" t="s">
+        <v>136</v>
+      </c>
+      <c r="U5" t="s">
+        <v>161</v>
+      </c>
+      <c r="V5" t="s">
+        <v>195</v>
+      </c>
+      <c r="W5" t="s">
+        <v>162</v>
+      </c>
+      <c r="X5" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="4">
         <v>2016</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1398,109 +1889,556 @@
       <c r="D7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8">
+      <c r="E7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="N7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R7" t="s">
+        <v>138</v>
+      </c>
+      <c r="S7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U7" t="s">
+        <v>136</v>
+      </c>
+      <c r="V7" t="s">
+        <v>167</v>
+      </c>
+      <c r="W7" t="s">
+        <v>136</v>
+      </c>
+      <c r="X7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="4">
         <v>2017</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D9">
         <v>2015</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="N9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O9" t="s">
+        <v>138</v>
+      </c>
+      <c r="P9" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" t="s">
+        <v>136</v>
+      </c>
+      <c r="T9" t="s">
+        <v>136</v>
+      </c>
+      <c r="U9" t="s">
+        <v>136</v>
+      </c>
+      <c r="V9" t="s">
+        <v>175</v>
+      </c>
+      <c r="W9" t="s">
+        <v>136</v>
+      </c>
+      <c r="X9" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="7">
         <v>2015</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" t="s">
+        <v>173</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="X11" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <v>2015</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E12" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M12" t="s">
+        <v>173</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="W12" t="s">
+        <v>187</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D13">
         <v>2018</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="E13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" t="s">
+        <v>173</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="W13" t="s">
+        <v>190</v>
+      </c>
+      <c r="X13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>2018</v>
       </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
@@ -1511,24 +2449,171 @@
       <c r="D15">
         <v>2016</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M15" t="s">
+        <v>173</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="X15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D16">
         <v>2015</v>
       </c>
+      <c r="E16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M16" t="s">
+        <v>173</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="W16" t="s">
+        <v>197</v>
+      </c>
+      <c r="X16" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC16" s="7" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1542,7 +2627,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1556,7 +2641,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -1571,13 +2656,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D20">
         <v>2014</v>
@@ -1585,13 +2670,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D21">
         <v>2014</v>
@@ -1600,13 +2685,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D22">
         <v>2016</v>
@@ -1614,13 +2699,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D23">
         <v>2017</v>
@@ -1628,7 +2713,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -1642,7 +2727,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
@@ -1656,7 +2741,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
@@ -1670,13 +2755,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D27">
         <v>2016</v>
@@ -1684,24 +2769,24 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D28">
         <v>2017</v>
       </c>
       <c r="K28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
@@ -1715,13 +2800,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D30">
         <v>2014</v>
@@ -1729,7 +2814,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1743,13 +2828,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D32">
         <v>2016</v>
@@ -1757,7 +2842,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -1771,10 +2856,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
@@ -1785,7 +2870,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
@@ -1799,13 +2884,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D36">
         <v>2017</v>
@@ -1813,13 +2898,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D37">
         <v>2016</v>
@@ -1827,7 +2912,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1841,13 +2926,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D39">
         <v>2014</v>
@@ -1855,7 +2940,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -1869,13 +2954,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>2016</v>
@@ -1883,7 +2968,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -1897,7 +2982,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
@@ -1911,7 +2996,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -1925,7 +3010,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -1939,13 +3024,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D46">
         <v>2019</v>
@@ -1953,7 +3038,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
@@ -1967,7 +3052,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
@@ -1981,7 +3066,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
@@ -1995,7 +3080,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
@@ -2009,13 +3094,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D51">
         <v>2015</v>
@@ -2023,7 +3108,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -2037,7 +3122,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
@@ -2051,7 +3136,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -2065,12 +3150,36 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis.xlsx
+++ b/src/analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="230">
   <si>
     <t>title</t>
   </si>
@@ -614,9 +614,6 @@
     <t>encryption</t>
   </si>
   <si>
-    <t>quality attribut</t>
-  </si>
-  <si>
     <t>feature model</t>
   </si>
   <si>
@@ -639,6 +636,99 @@
   </si>
   <si>
     <t>mobile web platform as configuration service</t>
+  </si>
+  <si>
+    <t>access, privacy, variability</t>
+  </si>
+  <si>
+    <t>Firewall, access control, misuse pattern, encryption</t>
+  </si>
+  <si>
+    <t>ISO 27000, HIPAA, NIST Cloud Computing Security Reference Architecture</t>
+  </si>
+  <si>
+    <t>Cloud Access Security Broker (CASB): A pattern for secure access to cloud services</t>
+  </si>
+  <si>
+    <t>E. B. Fernandez and B. Hamid</t>
+  </si>
+  <si>
+    <t>A pattern for network functions virtualization</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>ecosystem as expansion of SPL architecture, concrete security patterns</t>
+  </si>
+  <si>
+    <t>SAML</t>
+  </si>
+  <si>
+    <t>security goals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> access control</t>
+  </si>
+  <si>
+    <t>access, data manipulation, data theft, malware</t>
+  </si>
+  <si>
+    <t>mapping, solution-space</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> access control, encryption</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Firewall, access control, encryption</t>
+  </si>
+  <si>
+    <t>authentication, authorization</t>
+  </si>
+  <si>
+    <t>security pattern for network function virtualization in ecosystem</t>
+  </si>
+  <si>
+    <t>pattern for secure access in cloud ecosystem</t>
+  </si>
+  <si>
+    <t>ISO 27001</t>
+  </si>
+  <si>
+    <t>event logs</t>
+  </si>
+  <si>
+    <t>Business Process Management</t>
+  </si>
+  <si>
+    <t>privacy</t>
+  </si>
+  <si>
+    <t>quality attribute</t>
+  </si>
+  <si>
+    <t>citizen data</t>
+  </si>
+  <si>
+    <t>e-Government</t>
+  </si>
+  <si>
+    <t>Industry (robotics)</t>
+  </si>
+  <si>
+    <t>access, privacy</t>
+  </si>
+  <si>
+    <t>cloud, database</t>
+  </si>
+  <si>
+    <t>robotics in cloud</t>
+  </si>
+  <si>
+    <t>source code, features</t>
+  </si>
+  <si>
+    <t>HyperFlex Toolchain</t>
   </si>
 </sst>
 </file>
@@ -781,7 +871,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -979,6 +1069,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1142,15 +1238,15 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" xfId="6" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1472,10 +1568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC62"/>
+  <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -1484,111 +1581,111 @@
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>2017</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1623,13 +1720,13 @@
       <c r="J3" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>141</v>
       </c>
       <c r="L3" t="s">
         <v>148</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>149</v>
       </c>
       <c r="N3" t="s">
@@ -1685,7 +1782,7 @@
       <c r="A4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
@@ -1712,7 +1809,7 @@
       <c r="J4" t="s">
         <v>153</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="4" t="s">
         <v>141</v>
       </c>
       <c r="L4" t="s">
@@ -1774,7 +1871,7 @@
       <c r="A5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C5" t="s">
@@ -1801,13 +1898,13 @@
       <c r="J5" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="4" t="s">
         <v>141</v>
       </c>
       <c r="L5" t="s">
         <v>163</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>173</v>
       </c>
       <c r="N5" t="s">
@@ -1835,7 +1932,7 @@
         <v>161</v>
       </c>
       <c r="V5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W5" t="s">
         <v>162</v>
@@ -1859,20 +1956,20 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>2016</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1907,13 +2004,13 @@
       <c r="J7" t="s">
         <v>153</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>172</v>
       </c>
       <c r="L7" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="6" t="s">
         <v>173</v>
       </c>
       <c r="N7" t="s">
@@ -1962,23 +2059,23 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>2017</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="H8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2013,13 +2110,13 @@
       <c r="J9" t="s">
         <v>144</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="4" t="s">
         <v>141</v>
       </c>
       <c r="L9" t="s">
         <v>179</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="6" t="s">
         <v>173</v>
       </c>
       <c r="N9" t="s">
@@ -2071,92 +2168,92 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>2015</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="F10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="X10" s="7" t="s">
+      <c r="N10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="X10" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="Y10" s="7" t="s">
+      <c r="Y10" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="Z10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC10" s="7" t="s">
+      <c r="Z10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC10" s="5" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2173,76 +2270,76 @@
       <c r="D11">
         <v>2013</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="F11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="5" t="s">
         <v>136</v>
       </c>
       <c r="M11" t="s">
         <v>173</v>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="U11" s="7" t="s">
+      <c r="N11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="U11" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="V11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="W11" s="7" t="s">
+      <c r="V11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="W11" s="5" t="s">
         <v>184</v>
       </c>
       <c r="X11" t="s">
         <v>143</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Y11" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="Z11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB11" s="7" t="s">
+      <c r="Z11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB11" s="5" t="s">
         <v>136</v>
       </c>
       <c r="AC11" t="s">
@@ -2262,58 +2359,58 @@
       <c r="D12">
         <v>2015</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="F12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="5" t="s">
         <v>189</v>
       </c>
       <c r="M12" t="s">
         <v>173</v>
       </c>
-      <c r="N12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="V12" s="7" t="s">
+      <c r="N12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="V12" s="5" t="s">
         <v>175</v>
       </c>
       <c r="W12" t="s">
@@ -2322,16 +2419,16 @@
       <c r="X12" t="s">
         <v>143</v>
       </c>
-      <c r="Y12" s="7" t="s">
+      <c r="Y12" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="Z12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA12" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB12" s="7" t="s">
+      <c r="Z12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB12" s="5" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2351,55 +2448,55 @@
       <c r="E13" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="F13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>192</v>
+      <c r="L13" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="M13" t="s">
         <v>173</v>
       </c>
-      <c r="N13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="V13" s="7" t="s">
+      <c r="N13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="V13" s="5" t="s">
         <v>175</v>
       </c>
       <c r="W13" t="s">
@@ -2411,30 +2508,30 @@
       <c r="Y13" t="s">
         <v>182</v>
       </c>
-      <c r="Z13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="Z13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>2018</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2452,58 +2549,58 @@
       <c r="E15" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="F15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>194</v>
+      <c r="L15" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="M15" t="s">
         <v>173</v>
       </c>
-      <c r="N15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="W15" s="7" t="s">
+      <c r="N15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="W15" s="5" t="s">
         <v>136</v>
       </c>
       <c r="X15" t="s">
@@ -2512,10 +2609,10 @@
       <c r="Y15" t="s">
         <v>169</v>
       </c>
-      <c r="Z15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA15" s="7" t="s">
+      <c r="Z15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA15" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AB15" t="s">
@@ -2538,59 +2635,59 @@
       <c r="E16" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="F16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>192</v>
+      <c r="L16" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="M16" t="s">
         <v>173</v>
       </c>
-      <c r="N16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="U16" s="7" t="s">
+      <c r="N16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="W16" t="s">
         <v>196</v>
-      </c>
-      <c r="V16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="W16" t="s">
-        <v>197</v>
       </c>
       <c r="X16" t="s">
         <v>152</v>
@@ -2598,24 +2695,24 @@
       <c r="Y16" t="s">
         <v>176</v>
       </c>
-      <c r="Z16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC16" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Z16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
@@ -2624,220 +2721,674 @@
       <c r="D17">
         <v>2015</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="N17" t="s">
+        <v>201</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="W17" t="s">
+        <v>200</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
+        <v>205</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="D18">
         <v>2015</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="N18" t="s">
+        <v>207</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="U18" t="s">
+        <v>208</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="W18" t="s">
+        <v>212</v>
+      </c>
+      <c r="X18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19">
+        <v>2015</v>
+      </c>
+      <c r="E19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="N19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="U19" t="s">
+        <v>208</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="W19" t="s">
+        <v>213</v>
+      </c>
+      <c r="X19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>2015</v>
+      </c>
+      <c r="E20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="N20" t="s">
+        <v>217</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="X20" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>27</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>2013</v>
       </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="N21" t="s">
+        <v>136</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D20">
+      <c r="D22" s="2">
         <v>2014</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="J22" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
         <v>101</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>100</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>2014</v>
       </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="E23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N23" t="s">
+        <v>136</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="W23" t="s">
+        <v>209</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
         <v>105</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>104</v>
-      </c>
-      <c r="D22">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
       </c>
       <c r="D24">
         <v>2016</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>76</v>
       </c>
       <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>53</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>37</v>
       </c>
-      <c r="D26">
+      <c r="D28">
         <v>2018</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28">
-        <v>2017</v>
       </c>
       <c r="K28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>76</v>
       </c>
       <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>2013</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
         <v>120</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>119</v>
       </c>
-      <c r="D30">
+      <c r="D32">
         <v>2014</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32">
-        <v>2016</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2845,13 +3396,13 @@
         <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2859,13 +3410,13 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="D34">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2873,10 +3424,10 @@
         <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D35">
         <v>2014</v>
@@ -2887,13 +3438,13 @@
         <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="D36">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2901,13 +3452,13 @@
         <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2915,10 +3466,10 @@
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="D38">
         <v>2017</v>
@@ -2929,13 +3480,13 @@
         <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D39">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2943,13 +3494,13 @@
         <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2957,13 +3508,13 @@
         <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D41">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2971,13 +3522,13 @@
         <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2985,10 +3536,10 @@
         <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D43">
         <v>2016</v>
@@ -2999,13 +3550,13 @@
         <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3013,10 +3564,10 @@
         <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D45">
         <v>2016</v>
@@ -3027,13 +3578,13 @@
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="D46">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3041,13 +3592,13 @@
         <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D47">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3055,13 +3606,13 @@
         <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D48">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3069,13 +3620,13 @@
         <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D49">
-        <v>2016</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3083,13 +3634,13 @@
         <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D50">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3097,13 +3648,13 @@
         <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="D51">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3111,13 +3662,13 @@
         <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D52">
-        <v>2021</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3125,13 +3676,13 @@
         <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="D53">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3139,17 +3690,45 @@
         <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D54">
         <v>2021</v>
       </c>
     </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56">
+        <v>2021</v>
+      </c>
+    </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>126</v>
       </c>
     </row>

--- a/src/analysis.xlsx
+++ b/src/analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="276">
   <si>
     <t>title</t>
   </si>
@@ -364,9 +364,6 @@
   </si>
   <si>
     <t>Feature Models at Run Time  Feature Middleware for Multi-tenant SaaS Applications</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Autonomic Provisioning  Configuration and Management of Inter-Cloud Environments based on a Software Product Line Engineering Method</t>
@@ -713,9 +710,6 @@
     <t>e-Government</t>
   </si>
   <si>
-    <t>Industry (robotics)</t>
-  </si>
-  <si>
     <t>access, privacy</t>
   </si>
   <si>
@@ -729,6 +723,150 @@
   </si>
   <si>
     <t>HyperFlex Toolchain</t>
+  </si>
+  <si>
+    <t>Robotics</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>data exchange</t>
+  </si>
+  <si>
+    <t>OPC Unified Architecture</t>
+  </si>
+  <si>
+    <t>requirement</t>
+  </si>
+  <si>
+    <t>access control, security layer</t>
+  </si>
+  <si>
+    <t>ERP model</t>
+  </si>
+  <si>
+    <t>product-based</t>
+  </si>
+  <si>
+    <t>ERP Production Model in Cloud based on SPL</t>
+  </si>
+  <si>
+    <t>variability, bugs</t>
+  </si>
+  <si>
+    <t>code, variants</t>
+  </si>
+  <si>
+    <t>UML, MATA</t>
+  </si>
+  <si>
+    <t>Online surveys</t>
+  </si>
+  <si>
+    <t>multi-tenant SaaS cloud application</t>
+  </si>
+  <si>
+    <t>cloud, database, SaaS</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>trustworthiness, privacy, variability</t>
+  </si>
+  <si>
+    <t>Bit Extractor</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>Intel SGX enclaves, encryption, isolation</t>
+  </si>
+  <si>
+    <t>system goal</t>
+  </si>
+  <si>
+    <t>access control, encryption, SSH</t>
+  </si>
+  <si>
+    <t>further development</t>
+  </si>
+  <si>
+    <t>Ressource management</t>
+  </si>
+  <si>
+    <t>Mobile devices</t>
+  </si>
+  <si>
+    <t>context data, code</t>
+  </si>
+  <si>
+    <t>Odyssey-FEX Notation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaaS evolution </t>
+  </si>
+  <si>
+    <t>code, feature model</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <t>safety-critical system</t>
+  </si>
+  <si>
+    <t>feature models</t>
+  </si>
+  <si>
+    <t>cloud, database, IaaS</t>
+  </si>
+  <si>
+    <t>UML, own language</t>
+  </si>
+  <si>
+    <t>instance control</t>
+  </si>
+  <si>
+    <t>code, features</t>
+  </si>
+  <si>
+    <t>system requirement</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>cost-effective</t>
+  </si>
+  <si>
+    <t>Medical Information Processing</t>
+  </si>
+  <si>
+    <t>system feature</t>
+  </si>
+  <si>
+    <t>code, feature, personal information</t>
+  </si>
+  <si>
+    <t>database separation</t>
+  </si>
+  <si>
+    <t>centralized/decentralized</t>
+  </si>
+  <si>
+    <t>separated databases per tenant</t>
+  </si>
+  <si>
+    <t>user data</t>
+  </si>
+  <si>
+    <t>Survey tool</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1710,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -1612,19 +1750,19 @@
         <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>64</v>
@@ -1645,16 +1783,16 @@
         <v>73</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>106</v>
@@ -1686,7 +1824,7 @@
         <v>2017</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -1703,79 +1841,79 @@
         <v>2017</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
         <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I3" t="s">
         <v>76</v>
       </c>
       <c r="J3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>137</v>
+      </c>
+      <c r="R3" t="s">
+        <v>135</v>
+      </c>
+      <c r="S3" t="s">
+        <v>135</v>
+      </c>
+      <c r="T3" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" t="s">
+        <v>141</v>
+      </c>
+      <c r="V3" t="s">
+        <v>137</v>
+      </c>
+      <c r="W3" t="s">
+        <v>135</v>
+      </c>
+      <c r="X3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB3" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N3" t="s">
-        <v>136</v>
-      </c>
-      <c r="O3" t="s">
-        <v>136</v>
-      </c>
-      <c r="P3" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>138</v>
-      </c>
-      <c r="R3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S3" t="s">
-        <v>136</v>
-      </c>
-      <c r="T3" t="s">
-        <v>136</v>
-      </c>
-      <c r="U3" t="s">
-        <v>142</v>
-      </c>
-      <c r="V3" t="s">
-        <v>138</v>
-      </c>
-      <c r="W3" t="s">
-        <v>136</v>
-      </c>
-      <c r="X3" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>146</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1792,79 +1930,79 @@
         <v>2016</v>
       </c>
       <c r="E4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" t="s">
+        <v>135</v>
+      </c>
+      <c r="O4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>135</v>
+      </c>
+      <c r="R4" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" t="s">
+        <v>135</v>
+      </c>
+      <c r="T4" t="s">
+        <v>135</v>
+      </c>
+      <c r="U4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V4" t="s">
+        <v>135</v>
+      </c>
+      <c r="W4" t="s">
+        <v>135</v>
+      </c>
+      <c r="X4" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC4" t="s">
         <v>158</v>
-      </c>
-      <c r="F4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" t="s">
-        <v>155</v>
-      </c>
-      <c r="M4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N4" t="s">
-        <v>136</v>
-      </c>
-      <c r="O4" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>136</v>
-      </c>
-      <c r="R4" t="s">
-        <v>136</v>
-      </c>
-      <c r="S4" t="s">
-        <v>136</v>
-      </c>
-      <c r="T4" t="s">
-        <v>136</v>
-      </c>
-      <c r="U4" t="s">
-        <v>151</v>
-      </c>
-      <c r="V4" t="s">
-        <v>136</v>
-      </c>
-      <c r="W4" t="s">
-        <v>136</v>
-      </c>
-      <c r="X4" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1881,79 +2019,79 @@
         <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" t="s">
         <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U5" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="V5" t="s">
+        <v>193</v>
+      </c>
+      <c r="W5" t="s">
+        <v>161</v>
+      </c>
+      <c r="X5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC5" t="s">
         <v>163</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="N5" t="s">
-        <v>136</v>
-      </c>
-      <c r="O5" t="s">
-        <v>138</v>
-      </c>
-      <c r="P5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S5" t="s">
-        <v>138</v>
-      </c>
-      <c r="T5" t="s">
-        <v>136</v>
-      </c>
-      <c r="U5" t="s">
-        <v>161</v>
-      </c>
-      <c r="V5" t="s">
-        <v>194</v>
-      </c>
-      <c r="W5" t="s">
-        <v>162</v>
-      </c>
-      <c r="X5" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1970,7 +2108,7 @@
         <v>2016</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1987,76 +2125,76 @@
         <v>2020</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
         <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
         <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="L7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="N7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T7" t="s">
-        <v>136</v>
-      </c>
-      <c r="U7" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="V7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB7" t="s">
         <v>169</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2076,7 +2214,7 @@
         <v>76</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -2093,79 +2231,79 @@
         <v>2015</v>
       </c>
       <c r="E9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N9" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P9" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>135</v>
+      </c>
+      <c r="R9" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" t="s">
+        <v>135</v>
+      </c>
+      <c r="T9" t="s">
+        <v>135</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="V9" t="s">
         <v>174</v>
       </c>
-      <c r="F9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s">
-        <v>144</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L9" t="s">
-        <v>179</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="N9" t="s">
-        <v>136</v>
-      </c>
-      <c r="O9" t="s">
-        <v>138</v>
-      </c>
-      <c r="P9" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>136</v>
-      </c>
-      <c r="R9" t="s">
-        <v>138</v>
-      </c>
-      <c r="S9" t="s">
-        <v>136</v>
-      </c>
-      <c r="T9" t="s">
-        <v>136</v>
-      </c>
-      <c r="U9" t="s">
-        <v>136</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
+        <v>135</v>
+      </c>
+      <c r="X9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y9" t="s">
         <v>175</v>
       </c>
-      <c r="W9" t="s">
-        <v>136</v>
-      </c>
-      <c r="X9" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s">
         <v>176</v>
       </c>
-      <c r="Z9" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>177</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2182,79 +2320,79 @@
         <v>2015</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="M10" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -2271,10 +2409,10 @@
         <v>2013</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>76</v>
@@ -2283,67 +2421,67 @@
         <v>76</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W11" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="X11" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC11" t="s">
         <v>184</v>
-      </c>
-      <c r="X11" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA11" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -2360,76 +2498,76 @@
         <v>2015</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="M12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="V12" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="W12" t="s">
+        <v>186</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="W12" t="s">
-        <v>187</v>
-      </c>
-      <c r="X12" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="Z12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -2446,76 +2584,76 @@
         <v>2018</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2547,76 +2685,76 @@
         <v>2016</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA15" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AB15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2627,85 +2765,85 @@
         <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16">
         <v>2015</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q16" s="5" t="s">
         <v>76</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="W16" t="s">
         <v>195</v>
       </c>
-      <c r="V16" s="5" t="s">
+      <c r="X16" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC16" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="W16" t="s">
-        <v>196</v>
-      </c>
-      <c r="X16" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -2722,224 +2860,224 @@
         <v>2015</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>76</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V17" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="W17" t="s">
         <v>199</v>
       </c>
-      <c r="W17" t="s">
-        <v>200</v>
-      </c>
       <c r="X17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AD17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D18">
         <v>2015</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N18" t="s">
+        <v>206</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U18" t="s">
         <v>207</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="U18" t="s">
-        <v>208</v>
-      </c>
       <c r="V18" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="W18" t="s">
+        <v>211</v>
+      </c>
+      <c r="X18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y18" t="s">
         <v>210</v>
       </c>
-      <c r="W18" t="s">
-        <v>212</v>
-      </c>
-      <c r="X18" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>211</v>
-      </c>
       <c r="Z18" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AD18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" t="s">
         <v>203</v>
-      </c>
-      <c r="C19" t="s">
-        <v>204</v>
       </c>
       <c r="D19">
         <v>2015</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>76</v>
@@ -2948,40 +3086,40 @@
         <v>76</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W19" t="s">
+        <v>212</v>
+      </c>
+      <c r="X19" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD19" t="s">
         <v>213</v>
-      </c>
-      <c r="X19" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -2998,76 +3136,76 @@
         <v>2015</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA20" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -3084,76 +3222,76 @@
         <v>2013</v>
       </c>
       <c r="E21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3170,7 +3308,7 @@
         <v>2014</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
@@ -3187,93 +3325,138 @@
         <v>2014</v>
       </c>
       <c r="E23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="J23" s="5" t="s">
+      <c r="K23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="L23" s="5" t="s">
+      <c r="M23" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="N23" t="s">
+        <v>135</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="W23" t="s">
+        <v>208</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="M23" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="N23" t="s">
-        <v>136</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="W23" t="s">
-        <v>209</v>
-      </c>
-      <c r="X23" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB23" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC23" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24">
-        <v>2016</v>
+      <c r="N24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -3289,6 +3472,81 @@
       <c r="D25">
         <v>2017</v>
       </c>
+      <c r="E25" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="W25" t="s">
+        <v>233</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3303,19 +3561,170 @@
       <c r="D26">
         <v>2016</v>
       </c>
+      <c r="E26" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB26" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD26" s="5"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="U27" t="s">
+        <v>207</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC27" s="5" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -3323,16 +3732,88 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D28">
-        <v>2018</v>
-      </c>
-      <c r="K28" t="s">
-        <v>115</v>
+        <v>2019</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="U28" t="s">
+        <v>207</v>
+      </c>
+      <c r="V28" t="s">
+        <v>245</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z28" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB28" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC28" s="5" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
@@ -3340,28 +3821,175 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29">
         <v>2016</v>
       </c>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N29" t="s">
+        <v>135</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="V29" t="s">
+        <v>223</v>
+      </c>
+      <c r="W29" t="s">
+        <v>250</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB29" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
       <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
         <v>117</v>
-      </c>
-      <c r="C30" t="s">
-        <v>118</v>
       </c>
       <c r="D30">
         <v>2017</v>
       </c>
+      <c r="E30" t="s">
+        <v>252</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N30" t="s">
+        <v>135</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="V30" t="s">
+        <v>223</v>
+      </c>
+      <c r="W30" t="s">
+        <v>250</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y30" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z30" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA30" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3376,36 +4004,189 @@
       <c r="D31">
         <v>2013</v>
       </c>
+      <c r="E31" t="s">
+        <v>253</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N31" t="s">
+        <v>135</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32">
         <v>2014</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="E32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N32" t="s">
+        <v>135</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P32" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z32" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB32" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC32" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>2016</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +4199,80 @@
       <c r="D34">
         <v>2016</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N34" t="s">
+        <v>135</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z34" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB34" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -3432,8 +4285,83 @@
       <c r="D35">
         <v>2014</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N35" t="s">
+        <v>135</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -3446,8 +4374,80 @@
       <c r="D36">
         <v>2015</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N36" t="s">
+        <v>135</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="W36" t="s">
+        <v>195</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA36" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB36" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -3460,22 +4460,172 @@
       <c r="D37">
         <v>2014</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N37" t="s">
+        <v>135</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38">
         <v>2017</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>275</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N38" t="s">
+        <v>135</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U38" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z38" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -3489,7 +4639,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -3503,7 +4653,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -3517,7 +4667,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -3531,7 +4681,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -3545,7 +4695,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -3559,7 +4709,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -3573,7 +4723,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -3587,7 +4737,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -3601,7 +4751,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -3676,10 +4826,10 @@
         <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D53">
         <v>2015</v>
@@ -3729,33 +4879,33 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C62" t="s">
         <v>76</v>

--- a/src/analysis.xlsx
+++ b/src/analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="285">
   <si>
     <t>title</t>
   </si>
@@ -824,9 +824,6 @@
     <t>feature models</t>
   </si>
   <si>
-    <t>cloud, database, IaaS</t>
-  </si>
-  <si>
     <t>UML, own language</t>
   </si>
   <si>
@@ -867,6 +864,36 @@
   </si>
   <si>
     <t>Survey tool</t>
+  </si>
+  <si>
+    <t>security API, plugin</t>
+  </si>
+  <si>
+    <t>Energy consumption</t>
+  </si>
+  <si>
+    <t>HADAS toolkit for green devoloping</t>
+  </si>
+  <si>
+    <t>variability model, configuration metrics</t>
+  </si>
+  <si>
+    <t>HADAS toolkit</t>
+  </si>
+  <si>
+    <t>parallel varient execution, access control, isolation</t>
+  </si>
+  <si>
+    <t>Software with Plugin architecture</t>
+  </si>
+  <si>
+    <t>family-based</t>
+  </si>
+  <si>
+    <t>technical evaluation</t>
+  </si>
+  <si>
+    <t>plugins</t>
   </si>
 </sst>
 </file>
@@ -1709,8 +1736,8 @@
   <dimension ref="A1:AD62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -2140,7 +2167,7 @@
         <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>171</v>
@@ -2173,7 +2200,7 @@
         <v>135</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V7" t="s">
         <v>166</v>
@@ -2187,7 +2214,7 @@
       <c r="Y7" t="s">
         <v>168</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" s="5" t="s">
         <v>135</v>
       </c>
       <c r="AA7" t="s">
@@ -2293,8 +2320,8 @@
       <c r="Y9" t="s">
         <v>175</v>
       </c>
-      <c r="Z9" t="s">
-        <v>135</v>
+      <c r="Z9" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="AA9" t="s">
         <v>76</v>
@@ -2335,7 +2362,7 @@
         <v>76</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>140</v>
@@ -2833,8 +2860,8 @@
       <c r="Y16" t="s">
         <v>175</v>
       </c>
-      <c r="Z16" s="5" t="s">
-        <v>135</v>
+      <c r="Z16" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="AA16" s="5" t="s">
         <v>137</v>
@@ -2875,7 +2902,7 @@
         <v>135</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>140</v>
@@ -3059,7 +3086,7 @@
         <v>135</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>140</v>
@@ -3198,8 +3225,8 @@
       <c r="Y20" t="s">
         <v>175</v>
       </c>
-      <c r="Z20" s="5" t="s">
-        <v>135</v>
+      <c r="Z20" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="AA20" s="5" t="s">
         <v>76</v>
@@ -3340,7 +3367,7 @@
         <v>137</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>140</v>
@@ -3892,8 +3919,8 @@
       <c r="Y29" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="Z29" s="5" t="s">
-        <v>135</v>
+      <c r="Z29" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="AA29" s="5" t="s">
         <v>135</v>
@@ -4109,7 +4136,7 @@
         <v>135</v>
       </c>
       <c r="J32" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>140</v>
@@ -4215,7 +4242,7 @@
         <v>135</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>140</v>
@@ -4262,14 +4289,14 @@
       <c r="Y34" t="s">
         <v>210</v>
       </c>
-      <c r="Z34" s="5" t="s">
-        <v>135</v>
+      <c r="Z34" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="AA34" s="5" t="s">
         <v>137</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -4307,7 +4334,7 @@
         <v>140</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>172</v>
@@ -4340,7 +4367,7 @@
         <v>174</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X35" s="5" t="s">
         <v>151</v>
@@ -4348,8 +4375,8 @@
       <c r="Y35" t="s">
         <v>181</v>
       </c>
-      <c r="Z35" s="5" t="s">
-        <v>135</v>
+      <c r="Z35" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="AA35" s="5" t="s">
         <v>135</v>
@@ -4358,7 +4385,7 @@
         <v>135</v>
       </c>
       <c r="AC35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -4396,7 +4423,7 @@
         <v>140</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>172</v>
@@ -4434,8 +4461,8 @@
       <c r="Y36" t="s">
         <v>181</v>
       </c>
-      <c r="Z36" s="5" t="s">
-        <v>135</v>
+      <c r="Z36" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="AA36" s="5" t="s">
         <v>135</v>
@@ -4444,7 +4471,7 @@
         <v>135</v>
       </c>
       <c r="AC36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
@@ -4461,7 +4488,7 @@
         <v>2014</v>
       </c>
       <c r="E37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>135</v>
@@ -4482,7 +4509,7 @@
         <v>140</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M37" s="6" t="s">
         <v>172</v>
@@ -4509,10 +4536,10 @@
         <v>135</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W37" s="5" t="s">
         <v>189</v>
@@ -4523,8 +4550,8 @@
       <c r="Y37" t="s">
         <v>181</v>
       </c>
-      <c r="Z37" s="5" t="s">
-        <v>135</v>
+      <c r="Z37" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="AA37" s="5" t="s">
         <v>135</v>
@@ -4533,7 +4560,7 @@
         <v>135</v>
       </c>
       <c r="AC37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -4550,7 +4577,7 @@
         <v>2017</v>
       </c>
       <c r="E38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>135</v>
@@ -4568,10 +4595,10 @@
         <v>242</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>172</v>
@@ -4604,7 +4631,7 @@
         <v>174</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X38" s="5" t="s">
         <v>142</v>
@@ -4612,8 +4639,8 @@
       <c r="Y38" t="s">
         <v>210</v>
       </c>
-      <c r="Z38" s="5" t="s">
-        <v>145</v>
+      <c r="Z38" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="AA38" s="5" t="s">
         <v>137</v>
@@ -4622,20 +4649,20 @@
         <v>135</v>
       </c>
       <c r="AC38" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>2016</v>
       </c>
     </row>
@@ -4652,6 +4679,81 @@
       <c r="D40">
         <v>2017</v>
       </c>
+      <c r="E40" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N40" t="s">
+        <v>135</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z40" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB40" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC40" s="5" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -4665,6 +4767,75 @@
       </c>
       <c r="D41">
         <v>2014</v>
+      </c>
+      <c r="E41" t="s">
+        <v>281</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N41" t="s">
+        <v>135</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U41" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z41" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB41" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">

--- a/src/analysis.xlsx
+++ b/src/analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="349">
   <si>
     <t>title</t>
   </si>
@@ -890,9 +890,6 @@
     <t>parallel variant execution, access control, isolation</t>
   </si>
   <si>
-    <t>JEE Platform</t>
-  </si>
-  <si>
     <t>access control, Linux security models</t>
   </si>
   <si>
@@ -1040,16 +1037,55 @@
     <t>Yang Cao, Chung-Horng Lung, Samuel Ajila</t>
   </si>
   <si>
-    <t>User-Centric Adaptation of Multi-tenant Services: Preference-Based Analysis for Service Reconfiguration</t>
-  </si>
-  <si>
-    <t>Jesús García-Galán, Liliana Pasquale, Pablo Trinidad, Antonio Ruiz-Cortés</t>
-  </si>
-  <si>
-    <t>User-Centric Adaptation Analysis of Multi-Tenant Services</t>
-  </si>
-  <si>
     <t>Fatma Mohamed, Rabeb Mizouni, Mohammed Abu-Matar, Mahmoud Al-Qutayri, Jon Whittle</t>
+  </si>
+  <si>
+    <t>general business</t>
+  </si>
+  <si>
+    <t>model-based variable security framework</t>
+  </si>
+  <si>
+    <t>CyberSPL</t>
+  </si>
+  <si>
+    <t>SPL tools!</t>
+  </si>
+  <si>
+    <t>application data (sensor data)</t>
+  </si>
+  <si>
+    <t>FaMa, CyberSPL (analysis)</t>
+  </si>
+  <si>
+    <t>encryption, SSL, TSL, security pattern, access control</t>
+  </si>
+  <si>
+    <t>encryption (HTTPS), access control, security protocols (SSL, TLS)</t>
+  </si>
+  <si>
+    <t>leak of information, vulnerabilities, variability, access, privacy</t>
+  </si>
+  <si>
+    <t>communication, access, privacy</t>
+  </si>
+  <si>
+    <t>security AND privacy</t>
+  </si>
+  <si>
+    <t>security as challenge</t>
+  </si>
+  <si>
+    <t>system challenge</t>
+  </si>
+  <si>
+    <t>Xfeature (XML)</t>
+  </si>
+  <si>
+    <t>configuration data (feature model)</t>
+  </si>
+  <si>
+    <t>pure::variants</t>
   </si>
 </sst>
 </file>
@@ -1891,9 +1927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -4479,7 +4515,7 @@
         <v>133</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="AC29" t="s">
         <v>263</v>
@@ -4579,7 +4615,7 @@
         <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C31" t="s">
         <v>119</v>
@@ -4921,7 +4957,7 @@
         <v>133</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -4938,7 +4974,7 @@
         <v>2016</v>
       </c>
       <c r="E35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>133</v>
@@ -4959,7 +4995,7 @@
         <v>138</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>169</v>
@@ -4986,19 +5022,19 @@
         <v>133</v>
       </c>
       <c r="U35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V35" s="5" t="s">
         <v>171</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X35" s="5" t="s">
         <v>149</v>
       </c>
       <c r="Y35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z35" s="6" t="s">
         <v>232</v>
@@ -5024,7 +5060,7 @@
         <v>2016</v>
       </c>
       <c r="E36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>133</v>
@@ -5045,7 +5081,7 @@
         <v>138</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>169</v>
@@ -5075,7 +5111,7 @@
         <v>246</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W36" s="5" t="s">
         <v>133</v>
@@ -5084,7 +5120,7 @@
         <v>149</v>
       </c>
       <c r="Y36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z36" s="5" t="s">
         <v>143</v>
@@ -5110,7 +5146,7 @@
         <v>2016</v>
       </c>
       <c r="E37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>76</v>
@@ -5131,13 +5167,13 @@
         <v>138</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>169</v>
       </c>
       <c r="N37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O37" s="5" t="s">
         <v>76</v>
@@ -5161,16 +5197,16 @@
         <v>217</v>
       </c>
       <c r="V37" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="W37" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="W37" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="X37" s="5" t="s">
         <v>149</v>
       </c>
       <c r="Y37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Z37" s="6" t="s">
         <v>278</v>
@@ -5179,10 +5215,10 @@
         <v>133</v>
       </c>
       <c r="AB37" s="5" t="s">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="AC37" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
@@ -5199,7 +5235,7 @@
         <v>2016</v>
       </c>
       <c r="E38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>76</v>
@@ -5220,7 +5256,7 @@
         <v>138</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>169</v>
@@ -5250,10 +5286,10 @@
         <v>217</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X38" s="5" t="s">
         <v>149</v>
@@ -5268,7 +5304,7 @@
         <v>133</v>
       </c>
       <c r="AB38" s="5" t="s">
-        <v>133</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
@@ -5306,13 +5342,13 @@
         <v>138</v>
       </c>
       <c r="L39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>146</v>
       </c>
       <c r="N39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O39" s="5" t="s">
         <v>135</v>
@@ -5336,7 +5372,7 @@
         <v>261</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W39" s="5" t="s">
         <v>133</v>
@@ -5357,7 +5393,7 @@
         <v>133</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -5428,7 +5464,7 @@
         <v>133</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X40" s="5" t="s">
         <v>149</v>
@@ -5446,7 +5482,7 @@
         <v>166</v>
       </c>
       <c r="AC40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
@@ -5478,13 +5514,13 @@
         <v>133</v>
       </c>
       <c r="J41" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="K41" t="s">
+        <v>308</v>
+      </c>
+      <c r="L41" t="s">
         <v>310</v>
-      </c>
-      <c r="K41" t="s">
-        <v>309</v>
-      </c>
-      <c r="L41" t="s">
-        <v>311</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>169</v>
@@ -5514,10 +5550,10 @@
         <v>217</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X41" s="5" t="s">
         <v>164</v>
@@ -5535,10 +5571,10 @@
         <v>133</v>
       </c>
       <c r="AC41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AE41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
@@ -5701,7 +5737,7 @@
         <v>140</v>
       </c>
       <c r="Y43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z43" s="5" t="s">
         <v>133</v>
@@ -5748,13 +5784,13 @@
         <v>138</v>
       </c>
       <c r="L44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>169</v>
       </c>
       <c r="N44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>76</v>
@@ -5778,16 +5814,16 @@
         <v>246</v>
       </c>
       <c r="V44" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="W44" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="W44" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="X44" s="5" t="s">
         <v>140</v>
       </c>
       <c r="Y44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Z44" s="6" t="s">
         <v>143</v>
@@ -5796,13 +5832,13 @@
         <v>133</v>
       </c>
       <c r="AB44" s="5" t="s">
-        <v>133</v>
+        <v>335</v>
       </c>
       <c r="AC44" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>315</v>
+        <v>323</v>
+      </c>
+      <c r="AD44" s="8" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -5840,7 +5876,7 @@
         <v>138</v>
       </c>
       <c r="L45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>169</v>
@@ -5870,10 +5906,10 @@
         <v>191</v>
       </c>
       <c r="V45" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X45" s="5" t="s">
         <v>140</v>
@@ -5888,10 +5924,10 @@
         <v>76</v>
       </c>
       <c r="AB45" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC45" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="AC45" s="5" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -5980,7 +6016,7 @@
         <v>133</v>
       </c>
       <c r="AC46" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
@@ -5988,13 +6024,91 @@
         <v>201</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D47">
         <v>2019</v>
+      </c>
+      <c r="E47" t="s">
+        <v>333</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s">
+        <v>141</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L47" t="s">
+        <v>257</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N47" t="s">
+        <v>133</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U47" t="s">
+        <v>261</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="W47" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z47" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB47" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC47" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD47" s="8" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
@@ -6002,13 +6116,91 @@
         <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D48">
         <v>2020</v>
+      </c>
+      <c r="E48" t="s">
+        <v>226</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J48" t="s">
+        <v>141</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L48" t="s">
+        <v>337</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N48" t="s">
+        <v>133</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U48" t="s">
+        <v>261</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z48" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA48" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC48" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
@@ -6016,13 +6208,85 @@
         <v>201</v>
       </c>
       <c r="B49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D49">
         <v>2016</v>
+      </c>
+      <c r="E49" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J49" t="s">
+        <v>150</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L49" t="s">
+        <v>315</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N49" t="s">
+        <v>133</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U49" t="s">
+        <v>261</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB49" s="5" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
@@ -6030,117 +6294,432 @@
         <v>201</v>
       </c>
       <c r="B50" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C50" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D50">
         <v>2015</v>
       </c>
+      <c r="E50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N50" t="s">
+        <v>133</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U50" t="s">
+        <v>345</v>
+      </c>
+      <c r="V50" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X50" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y50" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB50" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>344</v>
+      </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>201</v>
-      </c>
-      <c r="B51" t="s">
-        <v>334</v>
-      </c>
-      <c r="C51" t="s">
-        <v>333</v>
-      </c>
-      <c r="D51">
-        <v>2014</v>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" t="s">
-        <v>334</v>
-      </c>
-      <c r="C52" t="s">
-        <v>335</v>
-      </c>
-      <c r="D52">
-        <v>2016</v>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>123</v>
+      <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>122</v>
-      </c>
+      <c r="A59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" t="s">
-        <v>133</v>
-      </c>
+      <c r="A61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="2"/>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" t="s">
-        <v>135</v>
-      </c>
+      <c r="A62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2"/>
+      <c r="AJ62" s="2"/>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" t="s">
-        <v>76</v>
-      </c>
+      <c r="A63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="U63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="W63" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="X63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y63" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="D64" s="2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
+      <c r="J64" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
-      <c r="N64" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
-      <c r="U64" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="V64" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="W64" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
@@ -6160,25 +6739,21 @@
         <v>76</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D65" s="2">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
-      <c r="J65" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="7"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -6210,13 +6785,13 @@
         <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -6242,7 +6817,9 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
-      <c r="AC66" s="2"/>
+      <c r="AC66" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
@@ -6259,16 +6836,16 @@
         <v>76</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D67" s="2">
         <v>2016</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -6310,67 +6887,41 @@
         <v>76</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D68" s="2">
-        <v>2016</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>2017</v>
+      </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="H68" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
+      <c r="J68" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="U68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="V68" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="W68" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="X68" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y68" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA68" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
@@ -6380,469 +6931,14 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
       <c r="AJ68" s="2"/>
-      <c r="AK68"/>
-      <c r="AL68"/>
-      <c r="AM68"/>
     </row>
-    <row r="69" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D69" s="2">
-        <v>2014</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
-      <c r="AC69" s="2"/>
-      <c r="AD69" s="2"/>
-      <c r="AE69" s="2"/>
-      <c r="AF69" s="2"/>
-      <c r="AG69" s="2"/>
-      <c r="AH69" s="2"/>
-      <c r="AI69" s="2"/>
-      <c r="AJ69" s="2"/>
-      <c r="AK69"/>
-      <c r="AL69"/>
-      <c r="AM69"/>
-    </row>
-    <row r="70" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" s="2">
-        <v>2018</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
-      <c r="AA70" s="2"/>
-      <c r="AB70" s="2"/>
-      <c r="AC70" s="2"/>
-      <c r="AD70" s="2"/>
-      <c r="AE70" s="2"/>
-      <c r="AF70" s="2"/>
-      <c r="AG70" s="2"/>
-      <c r="AH70" s="2"/>
-      <c r="AI70" s="2"/>
-      <c r="AJ70" s="2"/>
-      <c r="AK70"/>
-      <c r="AL70"/>
-      <c r="AM70"/>
-    </row>
-    <row r="71" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="2">
-        <v>2017</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
-      <c r="AA71" s="2"/>
-      <c r="AB71" s="2"/>
-      <c r="AC71" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD71" s="2"/>
-      <c r="AE71" s="2"/>
-      <c r="AF71" s="2"/>
-      <c r="AG71" s="2"/>
-      <c r="AH71" s="2"/>
-      <c r="AI71" s="2"/>
-      <c r="AJ71" s="2"/>
-      <c r="AK71"/>
-      <c r="AL71"/>
-      <c r="AM71"/>
-    </row>
-    <row r="72" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72" s="2">
-        <v>2016</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
-      <c r="AA72" s="2"/>
-      <c r="AB72" s="2"/>
-      <c r="AC72" s="2"/>
-      <c r="AD72" s="2"/>
-      <c r="AE72" s="2"/>
-      <c r="AF72" s="2"/>
-      <c r="AG72" s="2"/>
-      <c r="AH72" s="2"/>
-      <c r="AI72" s="2"/>
-      <c r="AJ72" s="2"/>
-      <c r="AK72"/>
-      <c r="AL72"/>
-      <c r="AM72"/>
-    </row>
-    <row r="73" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" s="2">
-        <v>2017</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
-      <c r="AA73" s="2"/>
-      <c r="AB73" s="2"/>
-      <c r="AC73" s="2"/>
-      <c r="AD73" s="2"/>
-      <c r="AE73" s="2"/>
-      <c r="AF73" s="2"/>
-      <c r="AG73" s="2"/>
-      <c r="AH73" s="2"/>
-      <c r="AI73" s="2"/>
-      <c r="AJ73" s="2"/>
-    </row>
+    <row r="69" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="5"/>
-      <c r="AC76" s="5"/>
-      <c r="AD76" s="5"/>
-      <c r="AE76" s="5"/>
-      <c r="AF76" s="5"/>
-      <c r="AG76" s="5"/>
-      <c r="AH76" s="5"/>
-      <c r="AI76" s="5"/>
-      <c r="AJ76" s="5"/>
-      <c r="AK76" s="5"/>
-      <c r="AL76" s="5"/>
-      <c r="AM76" s="5"/>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="5"/>
-      <c r="AC77" s="5"/>
-      <c r="AD77" s="5"/>
-      <c r="AE77" s="5"/>
-      <c r="AF77" s="5"/>
-      <c r="AG77" s="5"/>
-      <c r="AH77" s="5"/>
-      <c r="AI77" s="5"/>
-      <c r="AJ77" s="5"/>
-      <c r="AK77" s="5"/>
-      <c r="AL77" s="5"/>
-      <c r="AM77" s="5"/>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="5"/>
-      <c r="AC78" s="5"/>
-      <c r="AD78" s="5"/>
-      <c r="AE78" s="5"/>
-      <c r="AF78" s="5"/>
-      <c r="AG78" s="5"/>
-      <c r="AH78" s="5"/>
-      <c r="AI78" s="5"/>
-      <c r="AJ78" s="5"/>
-      <c r="AK78" s="5"/>
-      <c r="AL78" s="5"/>
-      <c r="AM78" s="5"/>
-    </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="5"/>
-      <c r="AC79" s="5"/>
-      <c r="AD79" s="5"/>
-      <c r="AE79" s="5"/>
-      <c r="AF79" s="5"/>
-      <c r="AG79" s="5"/>
-      <c r="AH79" s="5"/>
-      <c r="AI79" s="5"/>
-      <c r="AJ79" s="5"/>
-      <c r="AK79" s="5"/>
-      <c r="AL79" s="5"/>
-      <c r="AM79" s="5"/>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
-      <c r="W80" s="5"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="5"/>
-      <c r="AC80" s="5"/>
-      <c r="AD80" s="5"/>
-      <c r="AE80" s="5"/>
-      <c r="AF80" s="5"/>
-      <c r="AG80" s="5"/>
-      <c r="AH80" s="5"/>
-      <c r="AI80" s="5"/>
-      <c r="AJ80" s="5"/>
-      <c r="AK80" s="5"/>
-      <c r="AL80" s="5"/>
-      <c r="AM80" s="5"/>
-    </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>

--- a/src/analysis.xlsx
+++ b/src/analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="348">
   <si>
     <t>title</t>
   </si>
@@ -448,9 +448,6 @@
   </si>
   <si>
     <t>Configuration generator, Verifier.</t>
-  </si>
-  <si>
-    <t>feature-based</t>
   </si>
   <si>
     <r>
@@ -1927,9 +1924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -1981,7 +1978,7 @@
         <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>64</v>
@@ -2043,7 +2040,7 @@
         <v>2017</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
         <v>133</v>
@@ -2064,10 +2061,10 @@
         <v>138</v>
       </c>
       <c r="L2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="N2" t="s">
         <v>133</v>
@@ -2103,10 +2100,10 @@
         <v>140</v>
       </c>
       <c r="Y2" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>143</v>
+        <v>177</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="AA2" t="s">
         <v>76</v>
@@ -2115,7 +2112,7 @@
         <v>142</v>
       </c>
       <c r="AC2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -2132,7 +2129,7 @@
         <v>2016</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
         <v>133</v>
@@ -2147,17 +2144,17 @@
         <v>76</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>138</v>
       </c>
       <c r="L3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" t="s">
         <v>152</v>
       </c>
-      <c r="M3" t="s">
-        <v>153</v>
-      </c>
       <c r="N3" t="s">
         <v>133</v>
       </c>
@@ -2180,19 +2177,19 @@
         <v>133</v>
       </c>
       <c r="U3" t="s">
+        <v>147</v>
+      </c>
+      <c r="V3" t="s">
+        <v>133</v>
+      </c>
+      <c r="W3" t="s">
+        <v>133</v>
+      </c>
+      <c r="X3" t="s">
         <v>148</v>
       </c>
-      <c r="V3" t="s">
-        <v>133</v>
-      </c>
-      <c r="W3" t="s">
-        <v>133</v>
-      </c>
-      <c r="X3" t="s">
-        <v>149</v>
-      </c>
       <c r="Y3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z3" t="s">
         <v>133</v>
@@ -2201,10 +2198,10 @@
         <v>133</v>
       </c>
       <c r="AB3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -2221,7 +2218,7 @@
         <v>2019</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
         <v>135</v>
@@ -2236,64 +2233,64 @@
         <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>138</v>
       </c>
       <c r="L4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="N4" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
+        <v>135</v>
+      </c>
+      <c r="T4" t="s">
+        <v>133</v>
+      </c>
+      <c r="U4" t="s">
+        <v>280</v>
+      </c>
+      <c r="V4" t="s">
+        <v>189</v>
+      </c>
+      <c r="W4" t="s">
+        <v>157</v>
+      </c>
+      <c r="X4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC4" t="s">
         <v>159</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="N4" t="s">
-        <v>133</v>
-      </c>
-      <c r="O4" t="s">
-        <v>135</v>
-      </c>
-      <c r="P4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" t="s">
-        <v>135</v>
-      </c>
-      <c r="T4" t="s">
-        <v>133</v>
-      </c>
-      <c r="U4" t="s">
-        <v>281</v>
-      </c>
-      <c r="V4" t="s">
-        <v>190</v>
-      </c>
-      <c r="W4" t="s">
-        <v>158</v>
-      </c>
-      <c r="X4" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -2310,7 +2307,7 @@
         <v>2020</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
         <v>133</v>
@@ -2325,17 +2322,17 @@
         <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="L5" t="s">
-        <v>167</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="N5" t="s">
         <v>133</v>
       </c>
@@ -2358,28 +2355,28 @@
         <v>133</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W5" t="s">
         <v>133</v>
       </c>
       <c r="X5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y5" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB5" t="s">
         <v>165</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -2396,7 +2393,7 @@
         <v>2015</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
         <v>133</v>
@@ -2417,10 +2414,10 @@
         <v>138</v>
       </c>
       <c r="L6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N6" t="s">
         <v>133</v>
@@ -2444,31 +2441,31 @@
         <v>133</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V6" t="s">
+        <v>170</v>
+      </c>
+      <c r="W6" t="s">
+        <v>133</v>
+      </c>
+      <c r="X6" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y6" t="s">
         <v>171</v>
       </c>
-      <c r="W6" t="s">
-        <v>133</v>
-      </c>
-      <c r="X6" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="Z6" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s">
         <v>172</v>
       </c>
-      <c r="Z6" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>173</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -2485,7 +2482,7 @@
         <v>2015</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>133</v>
@@ -2500,16 +2497,16 @@
         <v>76</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>138</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>133</v>
@@ -2533,7 +2530,7 @@
         <v>133</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>133</v>
@@ -2542,10 +2539,10 @@
         <v>133</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z7" s="5" t="s">
         <v>133</v>
@@ -2557,7 +2554,7 @@
         <v>133</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
@@ -2582,7 +2579,7 @@
         <v>2013</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>133</v>
@@ -2597,7 +2594,7 @@
         <v>133</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>138</v>
@@ -2606,7 +2603,7 @@
         <v>133</v>
       </c>
       <c r="M8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>133</v>
@@ -2630,19 +2627,19 @@
         <v>133</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>133</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X8" t="s">
         <v>140</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z8" s="5" t="s">
         <v>133</v>
@@ -2654,7 +2651,7 @@
         <v>133</v>
       </c>
       <c r="AC8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -2671,7 +2668,7 @@
         <v>2015</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>133</v>
@@ -2692,10 +2689,10 @@
         <v>138</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>133</v>
@@ -2719,19 +2716,19 @@
         <v>135</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X9" t="s">
         <v>140</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z9" s="5" t="s">
         <v>133</v>
@@ -2757,7 +2754,7 @@
         <v>2018</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>133</v>
@@ -2772,16 +2769,16 @@
         <v>76</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>133</v>
@@ -2805,19 +2802,19 @@
         <v>133</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z10" s="5" t="s">
         <v>133</v>
@@ -2852,7 +2849,7 @@
         <v>2016</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>135</v>
@@ -2867,16 +2864,16 @@
         <v>76</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>133</v>
@@ -2900,19 +2897,19 @@
         <v>133</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z11" s="5" t="s">
         <v>133</v>
@@ -2938,7 +2935,7 @@
         <v>2015</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>135</v>
@@ -2959,10 +2956,10 @@
         <v>138</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>133</v>
@@ -2986,31 +2983,31 @@
         <v>135</v>
       </c>
       <c r="U12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="W12" t="s">
         <v>191</v>
       </c>
-      <c r="V12" s="5" t="s">
+      <c r="X12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC12" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="W12" t="s">
-        <v>192</v>
-      </c>
-      <c r="X12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z12" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA12" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC12" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -3027,7 +3024,7 @@
         <v>2015</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>76</v>
@@ -3042,7 +3039,7 @@
         <v>133</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>138</v>
@@ -3051,10 +3048,10 @@
         <v>133</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>135</v>
@@ -3075,19 +3072,19 @@
         <v>133</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="W13" t="s">
         <v>195</v>
       </c>
-      <c r="W13" t="s">
-        <v>196</v>
-      </c>
       <c r="X13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z13" s="5" t="s">
         <v>133</v>
@@ -3099,27 +3096,27 @@
         <v>133</v>
       </c>
       <c r="AC13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D14">
         <v>2015</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>76</v>
@@ -3134,7 +3131,7 @@
         <v>133</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>138</v>
@@ -3143,44 +3140,44 @@
         <v>133</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s">
+        <v>202</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U14" t="s">
         <v>203</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U14" t="s">
-        <v>204</v>
-      </c>
       <c r="V14" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="W14" t="s">
+        <v>207</v>
+      </c>
+      <c r="X14" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y14" t="s">
         <v>206</v>
       </c>
-      <c r="W14" t="s">
-        <v>208</v>
-      </c>
-      <c r="X14" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>207</v>
-      </c>
       <c r="Z14" s="5" t="s">
         <v>133</v>
       </c>
@@ -3191,27 +3188,27 @@
         <v>133</v>
       </c>
       <c r="AC14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AD14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
         <v>199</v>
-      </c>
-      <c r="C15" t="s">
-        <v>200</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>76</v>
@@ -3226,7 +3223,7 @@
         <v>133</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>138</v>
@@ -3235,7 +3232,7 @@
         <v>133</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s">
         <v>133</v>
@@ -3259,34 +3256,34 @@
         <v>133</v>
       </c>
       <c r="U15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W15" t="s">
+        <v>208</v>
+      </c>
+      <c r="X15" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD15" t="s">
         <v>209</v>
-      </c>
-      <c r="X15" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -3303,7 +3300,7 @@
         <v>2015</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>133</v>
@@ -3324,13 +3321,13 @@
         <v>138</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>135</v>
@@ -3351,7 +3348,7 @@
         <v>133</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>133</v>
@@ -3360,13 +3357,13 @@
         <v>133</v>
       </c>
       <c r="X16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AA16" s="5" t="s">
         <v>76</v>
@@ -3389,7 +3386,7 @@
         <v>2013</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>133</v>
@@ -3410,10 +3407,10 @@
         <v>138</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N17" t="s">
         <v>133</v>
@@ -3437,19 +3434,19 @@
         <v>133</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W17" s="5" t="s">
         <v>133</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z17" s="5" t="s">
         <v>133</v>
@@ -3475,7 +3472,7 @@
         <v>2014</v>
       </c>
       <c r="E18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>133</v>
@@ -3490,64 +3487,64 @@
         <v>135</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L18" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W18" t="s">
+        <v>204</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB18" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="M18" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="N18" t="s">
-        <v>133</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="W18" t="s">
-        <v>205</v>
-      </c>
-      <c r="X18" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="AC18" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -3564,7 +3561,7 @@
         <v>2017</v>
       </c>
       <c r="E19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>133</v>
@@ -3579,64 +3576,64 @@
         <v>76</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L19" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W19" t="s">
+        <v>229</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z19" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="M19" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="W19" t="s">
-        <v>230</v>
-      </c>
-      <c r="X19" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z19" s="5" t="s">
+      <c r="AA19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC19" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB19" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -3653,7 +3650,7 @@
         <v>2016</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>133</v>
@@ -3668,64 +3665,64 @@
         <v>133</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L20" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB20" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="X20" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y20" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB20" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="AC20" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AD20" s="5"/>
     </row>
@@ -3743,7 +3740,7 @@
         <v>2018</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>133</v>
@@ -3758,52 +3755,52 @@
         <v>76</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L21" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U21" t="s">
+        <v>203</v>
+      </c>
+      <c r="V21" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U21" t="s">
-        <v>204</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="W21" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z21" s="5" t="s">
         <v>133</v>
@@ -3815,7 +3812,7 @@
         <v>133</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -3832,7 +3829,7 @@
         <v>2019</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>133</v>
@@ -3847,64 +3844,64 @@
         <v>76</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L22" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U22" t="s">
+        <v>203</v>
+      </c>
+      <c r="V22" t="s">
         <v>241</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U22" t="s">
-        <v>204</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="W22" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB22" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="W22" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="X22" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y22" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z22" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB22" s="5" t="s">
+      <c r="AC22" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="AC22" s="5" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
@@ -3921,7 +3918,7 @@
         <v>2016</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>133</v>
@@ -3936,16 +3933,16 @@
         <v>133</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>138</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N23" t="s">
         <v>133</v>
@@ -3969,22 +3966,22 @@
         <v>133</v>
       </c>
       <c r="U23" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="V23" t="s">
+        <v>219</v>
+      </c>
+      <c r="W23" t="s">
         <v>246</v>
-      </c>
-      <c r="V23" t="s">
-        <v>220</v>
-      </c>
-      <c r="W23" t="s">
-        <v>247</v>
       </c>
       <c r="X23" s="5" t="s">
         <v>140</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA23" s="5" t="s">
         <v>133</v>
@@ -4007,7 +4004,7 @@
         <v>2017</v>
       </c>
       <c r="E24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>133</v>
@@ -4022,16 +4019,16 @@
         <v>133</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>138</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N24" t="s">
         <v>133</v>
@@ -4055,22 +4052,22 @@
         <v>133</v>
       </c>
       <c r="U24" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="V24" t="s">
+        <v>219</v>
+      </c>
+      <c r="W24" t="s">
         <v>246</v>
-      </c>
-      <c r="V24" t="s">
-        <v>220</v>
-      </c>
-      <c r="W24" t="s">
-        <v>247</v>
       </c>
       <c r="X24" s="5" t="s">
         <v>140</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z24" s="5" t="s">
-        <v>143</v>
+        <v>171</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="AA24" s="5" t="s">
         <v>135</v>
@@ -4079,7 +4076,7 @@
         <v>133</v>
       </c>
       <c r="AC24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -4096,7 +4093,7 @@
         <v>2013</v>
       </c>
       <c r="E25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>133</v>
@@ -4111,61 +4108,61 @@
         <v>76</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>138</v>
       </c>
       <c r="L25" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N25" t="s">
+        <v>133</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s">
         <v>251</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="N25" t="s">
-        <v>133</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P25" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="V25" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="W25" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="X25" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y25" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z25" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>252</v>
       </c>
       <c r="AC25" t="s">
         <v>133</v>
@@ -4185,7 +4182,7 @@
         <v>2014</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>133</v>
@@ -4200,64 +4197,64 @@
         <v>133</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L26" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N26" t="s">
+        <v>133</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB26" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="N26" t="s">
-        <v>133</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P26" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="X26" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z26" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB26" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="AC26" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -4274,7 +4271,7 @@
         <v>2016</v>
       </c>
       <c r="E27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>133</v>
@@ -4289,61 +4286,61 @@
         <v>133</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L27" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N27" t="s">
+        <v>133</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z27" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA27" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB27" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="N27" t="s">
-        <v>133</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U27" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="V27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="W27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="X27" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z27" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA27" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -4360,7 +4357,7 @@
         <v>2014</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>133</v>
@@ -4375,16 +4372,16 @@
         <v>133</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N28" t="s">
         <v>133</v>
@@ -4408,22 +4405,22 @@
         <v>133</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z28" s="6" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="AA28" s="5" t="s">
         <v>133</v>
@@ -4432,7 +4429,7 @@
         <v>133</v>
       </c>
       <c r="AC28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
@@ -4449,7 +4446,7 @@
         <v>2015</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>133</v>
@@ -4464,16 +4461,16 @@
         <v>133</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N29" t="s">
         <v>133</v>
@@ -4494,31 +4491,31 @@
         <v>133</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z29" s="6" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="AA29" s="5" t="s">
         <v>133</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
@@ -4535,7 +4532,7 @@
         <v>2014</v>
       </c>
       <c r="E30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>133</v>
@@ -4550,16 +4547,16 @@
         <v>133</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>138</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N30" t="s">
         <v>133</v>
@@ -4583,31 +4580,31 @@
         <v>133</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V30" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC30" t="s">
         <v>262</v>
-      </c>
-      <c r="W30" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="X30" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z30" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA30" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB30" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -4615,7 +4612,7 @@
         <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C31" t="s">
         <v>119</v>
@@ -4624,7 +4621,7 @@
         <v>2017</v>
       </c>
       <c r="E31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>133</v>
@@ -4639,16 +4636,16 @@
         <v>135</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N31" t="s">
         <v>133</v>
@@ -4672,22 +4669,22 @@
         <v>133</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X31" s="5" t="s">
         <v>140</v>
       </c>
       <c r="Y31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z31" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA31" s="5" t="s">
         <v>135</v>
@@ -4696,7 +4693,7 @@
         <v>133</v>
       </c>
       <c r="AC31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -4713,7 +4710,7 @@
         <v>2017</v>
       </c>
       <c r="E32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>133</v>
@@ -4728,64 +4725,64 @@
         <v>76</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L32" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N32" t="s">
+        <v>133</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z32" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB32" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="N32" t="s">
-        <v>133</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="X32" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y32" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z32" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA32" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB32" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="AC32" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -4793,7 +4790,7 @@
         <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C33" t="s">
         <v>86</v>
@@ -4802,7 +4799,7 @@
         <v>2014</v>
       </c>
       <c r="E33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>133</v>
@@ -4823,10 +4820,10 @@
         <v>138</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N33" t="s">
         <v>133</v>
@@ -4850,22 +4847,22 @@
         <v>133</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="X33" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z33" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA33" s="5" t="s">
         <v>133</v>
@@ -4888,7 +4885,7 @@
         <v>2014</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>133</v>
@@ -4909,10 +4906,10 @@
         <v>138</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N34" t="s">
         <v>133</v>
@@ -4936,7 +4933,7 @@
         <v>133</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V34" s="5" t="s">
         <v>133</v>
@@ -4945,19 +4942,19 @@
         <v>133</v>
       </c>
       <c r="X34" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="AA34" s="5" t="s">
         <v>133</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -4974,7 +4971,7 @@
         <v>2016</v>
       </c>
       <c r="E35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>133</v>
@@ -4995,49 +4992,49 @@
         <v>138</v>
       </c>
       <c r="L35" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N35" t="s">
+        <v>133</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U35" t="s">
+        <v>283</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y35" t="s">
         <v>285</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="N35" t="s">
-        <v>133</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S35" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T35" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U35" t="s">
-        <v>284</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="W35" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="X35" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>286</v>
-      </c>
       <c r="Z35" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AA35" s="5" t="s">
         <v>76</v>
@@ -5060,7 +5057,7 @@
         <v>2016</v>
       </c>
       <c r="E36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>133</v>
@@ -5081,10 +5078,10 @@
         <v>138</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N36" t="s">
         <v>133</v>
@@ -5108,22 +5105,22 @@
         <v>133</v>
       </c>
       <c r="U36" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W36" s="5" t="s">
         <v>133</v>
       </c>
       <c r="X36" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z36" s="5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="AA36" s="5" t="s">
         <v>135</v>
@@ -5146,7 +5143,7 @@
         <v>2016</v>
       </c>
       <c r="E37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>76</v>
@@ -5161,64 +5158,64 @@
         <v>135</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>138</v>
       </c>
       <c r="L37" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N37" t="s">
+        <v>291</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z37" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA37" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB37" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC37" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="N37" t="s">
-        <v>292</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U37" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="W37" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="X37" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z37" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA37" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB37" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC37" s="5" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
@@ -5235,7 +5232,7 @@
         <v>2016</v>
       </c>
       <c r="E38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>76</v>
@@ -5250,16 +5247,16 @@
         <v>135</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>138</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>133</v>
@@ -5283,28 +5280,28 @@
         <v>76</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA38" s="5" t="s">
         <v>133</v>
       </c>
       <c r="AB38" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
@@ -5321,7 +5318,7 @@
         <v>2019</v>
       </c>
       <c r="E39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>76</v>
@@ -5336,64 +5333,64 @@
         <v>76</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L39" t="s">
+        <v>299</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N39" t="s">
+        <v>298</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U39" t="s">
+        <v>260</v>
+      </c>
+      <c r="V39" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="N39" t="s">
-        <v>299</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U39" t="s">
-        <v>261</v>
-      </c>
-      <c r="V39" s="5" t="s">
+      <c r="W39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z39" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC39" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="W39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="X39" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z39" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC39" s="5" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -5410,7 +5407,7 @@
         <v>2020</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>133</v>
@@ -5425,7 +5422,7 @@
         <v>76</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K40" t="s">
         <v>133</v>
@@ -5434,7 +5431,7 @@
         <v>133</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N40" t="s">
         <v>133</v>
@@ -5458,31 +5455,31 @@
         <v>133</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V40" s="5" t="s">
         <v>133</v>
       </c>
       <c r="W40" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z40" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC40" t="s">
         <v>303</v>
-      </c>
-      <c r="X40" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z40" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA40" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
@@ -5499,7 +5496,7 @@
         <v>2016</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>76</v>
@@ -5514,52 +5511,52 @@
         <v>133</v>
       </c>
       <c r="J41" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" t="s">
+        <v>307</v>
+      </c>
+      <c r="L41" t="s">
         <v>309</v>
       </c>
-      <c r="K41" t="s">
-        <v>308</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="M41" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N41" t="s">
+        <v>133</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="W41" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="M41" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="N41" t="s">
-        <v>133</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>311</v>
-      </c>
       <c r="X41" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y41" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z41" s="5" t="s">
         <v>133</v>
@@ -5571,10 +5568,10 @@
         <v>133</v>
       </c>
       <c r="AC41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
@@ -5591,7 +5588,7 @@
         <v>2015</v>
       </c>
       <c r="E42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>133</v>
@@ -5606,16 +5603,16 @@
         <v>133</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N42" t="s">
         <v>133</v>
@@ -5639,19 +5636,19 @@
         <v>133</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V42" s="5" t="s">
         <v>133</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X42" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y42" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z42" s="5" t="s">
         <v>133</v>
@@ -5677,7 +5674,7 @@
         <v>2015</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>133</v>
@@ -5692,16 +5689,16 @@
         <v>133</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>138</v>
       </c>
       <c r="L43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N43" t="s">
         <v>133</v>
@@ -5725,10 +5722,10 @@
         <v>133</v>
       </c>
       <c r="U43" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W43" s="5" t="s">
         <v>133</v>
@@ -5737,7 +5734,7 @@
         <v>140</v>
       </c>
       <c r="Y43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z43" s="5" t="s">
         <v>133</v>
@@ -5763,7 +5760,7 @@
         <v>2021</v>
       </c>
       <c r="E44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>76</v>
@@ -5784,61 +5781,61 @@
         <v>138</v>
       </c>
       <c r="L44" t="s">
+        <v>314</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N44" t="s">
+        <v>312</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U44" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="V44" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="M44" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="N44" t="s">
-        <v>313</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U44" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="V44" s="5" t="s">
+      <c r="W44" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="W44" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="X44" s="5" t="s">
         <v>140</v>
       </c>
       <c r="Y44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="AA44" s="5" t="s">
         <v>133</v>
       </c>
       <c r="AB44" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AC44" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD44" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -5855,7 +5852,7 @@
         <v>2014</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>133</v>
@@ -5870,16 +5867,16 @@
         <v>76</v>
       </c>
       <c r="J45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N45" t="s">
         <v>133</v>
@@ -5903,31 +5900,31 @@
         <v>133</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V45" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X45" s="5" t="s">
         <v>140</v>
       </c>
       <c r="Y45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z45" s="5" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="AA45" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AB45" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC45" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="AC45" s="5" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -5944,7 +5941,7 @@
         <v>2021</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>133</v>
@@ -5959,16 +5956,16 @@
         <v>76</v>
       </c>
       <c r="J46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N46" t="s">
         <v>133</v>
@@ -5992,7 +5989,7 @@
         <v>133</v>
       </c>
       <c r="U46" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V46" s="5" t="s">
         <v>133</v>
@@ -6001,10 +5998,10 @@
         <v>133</v>
       </c>
       <c r="X46" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z46" s="5" t="s">
         <v>133</v>
@@ -6016,24 +6013,24 @@
         <v>133</v>
       </c>
       <c r="AC46" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D47">
         <v>2019</v>
       </c>
       <c r="E47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>76</v>
@@ -6054,10 +6051,10 @@
         <v>138</v>
       </c>
       <c r="L47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N47" t="s">
         <v>133</v>
@@ -6081,51 +6078,51 @@
         <v>133</v>
       </c>
       <c r="U47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V47" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X47" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z47" s="5" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="AA47" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AB47" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC47" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD47" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="AC47" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD47" s="8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D48">
         <v>2020</v>
       </c>
       <c r="E48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>76</v>
@@ -6146,78 +6143,78 @@
         <v>138</v>
       </c>
       <c r="L48" t="s">
+        <v>336</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N48" t="s">
+        <v>133</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="U48" t="s">
+        <v>260</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z48" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA48" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB48" t="s">
         <v>337</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="N48" t="s">
-        <v>133</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P48" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q48" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S48" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T48" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U48" t="s">
-        <v>261</v>
-      </c>
-      <c r="V48" s="5" t="s">
+      <c r="AC48" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE48" t="s">
         <v>342</v>
-      </c>
-      <c r="W48" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="X48" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z48" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA48" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>338</v>
-      </c>
-      <c r="AC48" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D49">
         <v>2016</v>
       </c>
       <c r="E49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>133</v>
@@ -6232,16 +6229,16 @@
         <v>76</v>
       </c>
       <c r="J49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N49" t="s">
         <v>133</v>
@@ -6265,7 +6262,7 @@
         <v>133</v>
       </c>
       <c r="U49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V49" s="5" t="s">
         <v>133</v>
@@ -6274,10 +6271,10 @@
         <v>133</v>
       </c>
       <c r="X49" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z49" s="5" t="s">
         <v>133</v>
@@ -6286,24 +6283,24 @@
         <v>133</v>
       </c>
       <c r="AB49" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B50" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D50">
         <v>2015</v>
       </c>
       <c r="E50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>133</v>
@@ -6318,16 +6315,16 @@
         <v>133</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>138</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N50" t="s">
         <v>133</v>
@@ -6351,10 +6348,10 @@
         <v>133</v>
       </c>
       <c r="U50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="V50" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W50" s="5" t="s">
         <v>133</v>
@@ -6363,7 +6360,7 @@
         <v>140</v>
       </c>
       <c r="Y50" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z50" s="5" t="s">
         <v>133</v>
@@ -6372,10 +6369,10 @@
         <v>133</v>
       </c>
       <c r="AB50" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AC50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
@@ -6444,7 +6441,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>133</v>
@@ -6485,7 +6482,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>138</v>
@@ -6576,7 +6573,7 @@
         <v>2016</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -6624,7 +6621,7 @@
         <v>2016</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -6659,16 +6656,16 @@
         <v>133</v>
       </c>
       <c r="V63" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="W63" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="W63" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="X63" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y63" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z63" s="2" t="s">
         <v>133</v>
@@ -6705,7 +6702,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -6845,7 +6842,7 @@
         <v>2016</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
